--- a/artfynd/A 59863-2022.xlsx
+++ b/artfynd/A 59863-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16596333</v>
+        <v>112275278</v>
       </c>
       <c r="B2" t="n">
-        <v>90674</v>
+        <v>90823</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>5966</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Larslund, 200 m SV om, Srm</t>
+          <t>Naturskoleskogen, Srm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>646345.7756120953</v>
+        <v>646126</v>
       </c>
       <c r="R2" t="n">
-        <v>6568796.00882252</v>
+        <v>6568636</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -750,22 +750,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-09-17</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-09-17</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -774,13 +764,12 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>barrskog</t>
+          <t>äldre barrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -798,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16596549</v>
+        <v>112275279</v>
       </c>
       <c r="B3" t="n">
-        <v>90655</v>
+        <v>90818</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,34 +803,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>788</v>
+        <v>4368</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gul taggsvamp</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum geogenium</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Banker</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Larslund 150 m N om, Srm</t>
+          <t>Naturskoleskogen, Srm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>646473.9076076892</v>
+        <v>646126</v>
       </c>
       <c r="R3" t="n">
-        <v>6568986.364413029</v>
+        <v>6568636</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -868,22 +860,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2014-09-17</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2014-09-17</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,12 +874,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>äldre barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -915,7 +898,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16596598</v>
+        <v>16596333</v>
       </c>
       <c r="B4" t="n">
         <v>90674</v>
@@ -951,14 +934,14 @@
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Larslund 150 m N om, Srm</t>
+          <t>Larslund, 200 m SV om, Srm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>646473.9076076892</v>
+        <v>646345.7756120953</v>
       </c>
       <c r="R4" t="n">
-        <v>6568986.364413029</v>
+        <v>6568796.00882252</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1015,7 +998,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>barrskog</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1033,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16596570</v>
+        <v>16596549</v>
       </c>
       <c r="B5" t="n">
-        <v>90645</v>
+        <v>90655</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,43 +1032,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>788</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gul taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum geogenium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Banker</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>646459.877114721</v>
+        <v>646473.9076076892</v>
       </c>
       <c r="R5" t="n">
-        <v>6568950.994031222</v>
+        <v>6568986.364413029</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1159,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16596269</v>
+        <v>16596598</v>
       </c>
       <c r="B6" t="n">
-        <v>90665</v>
+        <v>90674</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,34 +1149,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Larslund, 200 m SV om, Srm</t>
+          <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>646345.7756120953</v>
+        <v>646473.9076076892</v>
       </c>
       <c r="R6" t="n">
-        <v>6568796.00882252</v>
+        <v>6568986.364413029</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1253,12 +1227,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>barrskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1276,10 +1251,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16596147</v>
+        <v>16596570</v>
       </c>
       <c r="B7" t="n">
-        <v>90638</v>
+        <v>90645</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,34 +1267,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1968</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Larslund, 100 m NO om, Srm</t>
+          <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>646541.2618779155</v>
+        <v>646459.877114721</v>
       </c>
       <c r="R7" t="n">
-        <v>6568942.861672431</v>
+        <v>6568950.994031222</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1375,7 +1359,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>gammal tallskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1393,10 +1377,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16596537</v>
+        <v>16596269</v>
       </c>
       <c r="B8" t="n">
-        <v>90676</v>
+        <v>90665</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,38 +1389,38 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Larslund 150 m N om, Srm</t>
+          <t>Larslund, 200 m SV om, Srm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>646478.5383970508</v>
+        <v>646345.7756120953</v>
       </c>
       <c r="R8" t="n">
-        <v>6568999.347842662</v>
+        <v>6568796.00882252</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1492,7 +1476,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>bergig tallskog</t>
+          <t>barrskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1510,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16596560</v>
+        <v>16596147</v>
       </c>
       <c r="B9" t="n">
-        <v>90671</v>
+        <v>90638</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,34 +1510,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4368</v>
+        <v>1968</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dofttaggsvamp</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum suaveolens</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) P. Karst.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Larslund 150 m N om, Srm</t>
+          <t>Larslund, 100 m NO om, Srm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>646447.935585688</v>
+        <v>646541.2618779155</v>
       </c>
       <c r="R9" t="n">
-        <v>6568967.948957363</v>
+        <v>6568942.861672431</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1609,7 +1593,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>gammal tallskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1627,10 +1611,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16596148</v>
+        <v>16596537</v>
       </c>
       <c r="B10" t="n">
-        <v>90642</v>
+        <v>90676</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1639,47 +1623,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>150</v>
+        <v>5966</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>646475.3461115662</v>
+        <v>646478.5383970508</v>
       </c>
       <c r="R10" t="n">
-        <v>6569002.298039754</v>
+        <v>6568999.347842662</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1735,7 +1710,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>gammal barrskog</t>
+          <t>bergig tallskog</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1753,10 +1728,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16596558</v>
+        <v>16596560</v>
       </c>
       <c r="B11" t="n">
-        <v>93375</v>
+        <v>90671</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1765,25 +1740,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2180</v>
+        <v>4368</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Dofttaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Hydnellum suaveolens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Scop.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1793,10 +1768,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>646473.9076076892</v>
+        <v>646447.935585688</v>
       </c>
       <c r="R11" t="n">
-        <v>6568986.364413029</v>
+        <v>6568967.948957363</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1870,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16693050</v>
+        <v>16596148</v>
       </c>
       <c r="B12" t="n">
-        <v>90676</v>
+        <v>90642</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1882,30 +1857,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>150</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Pers.) Fayod</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1915,17 +1890,17 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>V om Kiholm, 350 m NV om Södertälje naturskola, Srm</t>
+          <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>646148.4924872008</v>
+        <v>646475.3461115662</v>
       </c>
       <c r="R12" t="n">
-        <v>6568775.614403469</v>
+        <v>6569002.298039754</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1949,7 +1924,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-09-17</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -1959,7 +1934,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-09-17</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -1978,7 +1953,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>hällmarkstallskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1996,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16693067</v>
+        <v>16596558</v>
       </c>
       <c r="B13" t="n">
-        <v>90287</v>
+        <v>93375</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2008,38 +1983,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4745</v>
+        <v>2180</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>V om Kiholm, 350 m NV om Södertälje naturskola, Srm</t>
+          <t>Larslund 150 m N om, Srm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>646148.4924872008</v>
+        <v>646473.9076076892</v>
       </c>
       <c r="R13" t="n">
-        <v>6568775.614403469</v>
+        <v>6568986.364413029</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2066,7 +2041,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-09-17</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2076,7 +2051,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2014-09-30</t>
+          <t>2014-09-17</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2095,7 +2070,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>hällmarkstallskog</t>
+          <t>gammal barrskog</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2113,10 +2088,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>16693705</v>
+        <v>16693050</v>
       </c>
       <c r="B14" t="n">
-        <v>90642</v>
+        <v>90676</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2125,30 +2100,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>150</v>
+        <v>5966</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Grangråticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Boletopsis leucomelaena</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Pers.) Fayod</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2158,14 +2133,14 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Larslund, 125 m NNO om, Srm</t>
+          <t>V om Kiholm, 350 m NV om Södertälje naturskola, Srm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>646479.7601419021</v>
+        <v>646148.4924872008</v>
       </c>
       <c r="R14" t="n">
-        <v>6568994.272918969</v>
+        <v>6568775.614403469</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2221,7 +2196,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>mossrik barrskog</t>
+          <t>hällmarkstallskog</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2239,10 +2214,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16693883</v>
+        <v>16693067</v>
       </c>
       <c r="B15" t="n">
-        <v>88921</v>
+        <v>90287</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,38 +2226,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5741</v>
+        <v>4745</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Larslund, 150 m NO - NNO om, Srm</t>
+          <t>V om Kiholm, 350 m NV om Södertälje naturskola, Srm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>646551.0159830885</v>
+        <v>646148.4924872008</v>
       </c>
       <c r="R15" t="n">
-        <v>6568956.042841134</v>
+        <v>6568775.614403469</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2338,7 +2313,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>mossrik barrskog</t>
+          <t>hällmarkstallskog</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2356,10 +2331,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16693358</v>
+        <v>16693705</v>
       </c>
       <c r="B16" t="n">
-        <v>90665</v>
+        <v>90642</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2368,41 +2343,50 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>150</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Grangråticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Boletopsis leucomelaena</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Pers.) Fayod</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Naturskolan, V om Kiholm, Srm</t>
+          <t>Larslund, 125 m NNO om, Srm</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>646255.2466745003</v>
+        <v>646479.7601419021</v>
       </c>
       <c r="R16" t="n">
-        <v>6568521.54892104</v>
+        <v>6568994.272918969</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2455,7 +2439,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>blandskog</t>
+          <t>mossrik barrskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2473,10 +2457,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16693727</v>
+        <v>16693883</v>
       </c>
       <c r="B17" t="n">
-        <v>90665</v>
+        <v>88921</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2489,37 +2473,37 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4366</v>
+        <v>5741</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Larslund, 150 m NNO om, Srm</t>
+          <t>Larslund, 150 m NO - NNO om, Srm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>646494.5589568611</v>
+        <v>646551.0159830885</v>
       </c>
       <c r="R17" t="n">
-        <v>6568996.379754236</v>
+        <v>6568956.042841134</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2590,10 +2574,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16693735</v>
+        <v>16693358</v>
       </c>
       <c r="B18" t="n">
-        <v>90656</v>
+        <v>90665</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2602,47 +2586,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6003297</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Larslund, 150 m NNO om, Srm</t>
+          <t>Naturskolan, V om Kiholm, Srm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>646494.5589568611</v>
+        <v>646255.2466745003</v>
       </c>
       <c r="R18" t="n">
-        <v>6568996.379754236</v>
+        <v>6568521.54892104</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2698,7 +2673,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>mossrik barrskog</t>
+          <t>blandskog</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr"/>
@@ -2716,10 +2691,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>16693754</v>
+        <v>16693727</v>
       </c>
       <c r="B19" t="n">
-        <v>90674</v>
+        <v>90665</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2732,37 +2707,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Larslund, 75 m NO om, Srm</t>
+          <t>Larslund, 150 m NNO om, Srm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>646502.2642445986</v>
+        <v>646494.5589568611</v>
       </c>
       <c r="R19" t="n">
-        <v>6568929.577880156</v>
+        <v>6568996.379754236</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2810,7 +2785,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2834,10 +2808,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>73563665</v>
+        <v>16693735</v>
       </c>
       <c r="B20" t="n">
-        <v>90005</v>
+        <v>90656</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2846,40 +2820,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1339</v>
+        <v>6003297</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Spricktaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Hydnellum glaucopus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Naturskoleskogen, Srm</t>
+          <t>Larslund, 150 m NNO om, Srm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>646206.6633416803</v>
+        <v>646494.5589568611</v>
       </c>
       <c r="R20" t="n">
-        <v>6568477.16263372</v>
+        <v>6568996.379754236</v>
       </c>
       <c r="S20" t="n">
         <v>25</v>
@@ -2906,7 +2887,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2018-10-13</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2916,7 +2897,7 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2018-10-13</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
@@ -2930,44 +2911,33 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+      <c r="AI20" t="inlineStr">
+        <is>
+          <t>mossrik barrskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Anton Larsson</t>
+          <t>Hans Rydberg</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104721941</v>
+        <v>16693754</v>
       </c>
       <c r="B21" t="n">
-        <v>86196</v>
+        <v>90674</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2980,37 +2950,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4405</v>
+        <v>5964</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Diskvaxskivling</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus discoideus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Pers.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Södertälje naturskola, strax V om, Srm</t>
+          <t>Larslund, 75 m NO om, Srm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>646195.7792996226</v>
+        <v>646502.2642445986</v>
       </c>
       <c r="R21" t="n">
-        <v>6568413.222641654</v>
+        <v>6568929.577880156</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3034,7 +3004,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3044,7 +3014,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-10-22</t>
+          <t>2014-09-30</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3058,12 +3028,13 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>äldre barrskog</t>
+          <t>mossrik barrskog</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3078,6 +3049,477 @@
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>73563665</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90005</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1339</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Brandticka</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Pycnoporellus fulgens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.) Donk</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Naturskoleskogen, Srm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>646206.6633416803</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6568477.16263372</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2018-10-13</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2018-10-13</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Anton Larsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>104721941</v>
+      </c>
+      <c r="B23" t="n">
+        <v>86196</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4405</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Diskvaxskivling</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hygrophorus discoideus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Pers.) Fr.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Södertälje naturskola, strax V om, Srm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>646195.7792996226</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6568413.222641654</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2022-10-22</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112275250</v>
+      </c>
+      <c r="B24" t="n">
+        <v>89735</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1106</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Vågticka</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Osteina undosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Peck) Zmitr.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Naturskoleskogen, Srm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>646166</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6568529</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>112275263</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90843</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Naturskoleskogen, Srm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>646200</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6568598</v>
+      </c>
+      <c r="S25" t="n">
+        <v>50</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Södermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Södertälje</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-23</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Hans Rydberg</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 59863-2022.xlsx
+++ b/artfynd/A 59863-2022.xlsx
@@ -3299,10 +3299,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112275250</v>
+        <v>112275263</v>
       </c>
       <c r="B24" t="n">
-        <v>89735</v>
+        <v>90843</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3311,25 +3311,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1106</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vågticka</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Osteina undosa</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Peck) Zmitr.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>646166</v>
+        <v>646200</v>
       </c>
       <c r="R24" t="n">
-        <v>6568529</v>
+        <v>6568598</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3389,16 +3389,6 @@
       <c r="AI24" t="inlineStr">
         <is>
           <t>äldre barrskog</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>gran</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr"/>
@@ -3416,10 +3406,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112275263</v>
+        <v>112275250</v>
       </c>
       <c r="B25" t="n">
-        <v>90843</v>
+        <v>89749</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3428,25 +3418,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>1106</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vågticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Osteina undosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Peck) Zmitr.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3456,13 +3446,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>646200</v>
+        <v>646166</v>
       </c>
       <c r="R25" t="n">
-        <v>6568598</v>
+        <v>6568529</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3506,6 +3496,16 @@
       <c r="AI25" t="inlineStr">
         <is>
           <t>äldre barrskog</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr"/>

--- a/artfynd/A 59863-2022.xlsx
+++ b/artfynd/A 59863-2022.xlsx
@@ -683,7 +683,7 @@
         <v>112275278</v>
       </c>
       <c r="B2" t="n">
-        <v>90823</v>
+        <v>90837</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -790,7 +790,7 @@
         <v>112275279</v>
       </c>
       <c r="B3" t="n">
-        <v>90818</v>
+        <v>90832</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>112275263</v>
       </c>
       <c r="B24" t="n">
-        <v>90843</v>
+        <v>90857</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
